--- a/tracksheet (version 1).xlsb.xlsx
+++ b/tracksheet (version 1).xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Important Stuff\CodingQuestions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{417D3F1D-38E6-4445-9F0F-F7B6C196C15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE9283A-E238-43AF-8667-E637281C0929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D9598B2-69D8-457E-997A-7098C8D32A76}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -248,6 +247,54 @@
   </si>
   <si>
     <t>modified bfs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/increasing-triplet-subsequence/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BruteForce,O(n) new approach </t>
+  </si>
+  <si>
+    <t>Yes , see both ways , efficient way is nice</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/evaluate-reverse-polish-notation/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, see the appoach </t>
+  </si>
+  <si>
+    <t>1 , push val pop top two val if operator and comput b op a and insert back to stack</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-search/</t>
+  </si>
+  <si>
+    <t>modified dfs</t>
+  </si>
+  <si>
+    <t>yes, see how to implemnt this ans in a better way - backtracking</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/surrounded-regions/</t>
+  </si>
+  <si>
+    <t>1 , start dfs from all corners if 'O" put 'S' if 'O' else return - in 2nd pass change all S to O and all O to X</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/copy-list-with-random-pointer/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dictionary </t>
+  </si>
+  <si>
+    <t>yes , 1 more time</t>
+  </si>
+  <si>
+    <t>1, store key as a original node reference and val as a newly created node and val should be same. Simple triversal with new link list creaton with hashing</t>
   </si>
 </sst>
 </file>
@@ -675,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A007F2-951D-4EC1-9AD2-CBE187D69D00}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +739,7 @@
     <col min="7" max="7" width="36.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="22" style="1" customWidth="1"/>
+    <col min="10" max="10" width="92.140625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1146,7 +1193,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>44058</v>
       </c>
@@ -1204,6 +1251,154 @@
       </c>
       <c r="J19" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B20" s="3">
+        <v>334</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B21" s="3">
+        <v>150</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B22" s="3">
+        <v>79</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44059</v>
+      </c>
+      <c r="B23" s="3">
+        <v>130</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B24" s="3">
+        <v>138</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1226,8 +1421,13 @@
     <hyperlink ref="D17" r:id="rId16" xr:uid="{8EDB2E91-B967-4B89-9799-92A205B4705B}"/>
     <hyperlink ref="D18" r:id="rId17" xr:uid="{B6C31C01-AC4A-4150-9DE0-7DFF20F3EE84}"/>
     <hyperlink ref="D19" r:id="rId18" xr:uid="{0F0214CD-CE21-40E5-AACA-F0403FD2E6DD}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{A17757CA-6D71-4C5E-B7A1-C1A690CD24EA}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{BD8B4F81-C9F2-4603-A0C2-A114FF7B8FEC}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{F9B9B57E-5E7E-4F8C-A2B9-D062DB7C0230}"/>
+    <hyperlink ref="D23" r:id="rId22" xr:uid="{47B5BF2A-D61E-4957-B075-853C473034BD}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{321D2029-092F-4687-BDE2-EF0C13AF74A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>